--- a/input_csv/22_Software/artikel.xlsx
+++ b/input_csv/22_Software/artikel.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\22_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AFEA92-3288-4318-BEB0-C3B873CEBC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6EDAD-B2ED-4F76-BF50-E3F0B66B4DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F8A7ADA-C85A-4E26-B4D9-C53FD69A4902}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Artikelname</t>
   </si>
@@ -37,20 +50,32 @@
     <t>Norton 360 Deluxe Karte für 1 Jahr &amp; 3 Geräte</t>
   </si>
   <si>
-    <t>Microsoft Office 2021 Home &amp; Student | 1 User</t>
-  </si>
-  <si>
-    <t>Windows 11 64Bit Pro. Gutschein (siehe Zubehör).</t>
-  </si>
-  <si>
-    <t>WIN-103220</t>
+    <t>G-DATA Internet Security (kostenlose Jahreslizenz) für 3 Geräte</t>
+  </si>
+  <si>
+    <t>Microsoft Home Office 2024</t>
+  </si>
+  <si>
+    <t>Microsoft Office 365 Single | 1 User, 1 Jahr</t>
+  </si>
+  <si>
+    <t>Norton 360  für 1 Jahr &amp; 3 Geräte</t>
+  </si>
+  <si>
+    <t>Windows 11 64Bit Pro (30 Tage Testversion)</t>
+  </si>
+  <si>
+    <t>WIN-106169</t>
+  </si>
+  <si>
+    <t>Windows 11 64Bit Pro. Gutschein Französisch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +206,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,9 +559,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -905,15 +938,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F0AE9-29CD-4899-83B2-1635C94AEB6D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
@@ -930,42 +963,88 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>102945</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>103282</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5397231015244</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>106337</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>103319</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>106873</v>
       </c>
       <c r="C4">
-        <v>8806189409250</v>
+        <v>196388412259</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="2">
+        <v>103321</v>
+      </c>
+      <c r="C5">
+        <v>4255809918346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>103283</v>
+      </c>
+      <c r="C6">
+        <v>5397231015251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>103282</v>
+      </c>
+      <c r="C7">
+        <v>5397231015244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
